--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,63 +40,69 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -112,46 +118,52 @@
     <t>free</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>safe</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>better</t>
+    <t>gt</t>
   </si>
   <si>
     <t>join</t>
@@ -160,43 +172,46 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>giving</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -554,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8116438356164384</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,16 +709,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.7876712328767124</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7837837837837838</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,16 +859,16 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8224543080939948</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>315</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>315</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.76</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -891,31 +906,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L8">
+        <v>27</v>
+      </c>
+      <c r="M8">
+        <v>27</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>6</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L8">
-        <v>47</v>
-      </c>
-      <c r="M8">
-        <v>47</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8076923076923077</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>311</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>311</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.796875</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,16 +1059,16 @@
         <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5251937984496124</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C12">
-        <v>271</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>271</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.7878787878787878</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5098039215686274</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.7735849056603774</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L13">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5079365079365079</v>
+        <v>0.5096899224806202</v>
       </c>
       <c r="C14">
-        <v>96</v>
+        <v>263</v>
       </c>
       <c r="D14">
-        <v>96</v>
+        <v>263</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.76875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4765100671140939</v>
+        <v>0.4496644295302014</v>
       </c>
       <c r="C15">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D15">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.7682926829268293</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1288,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3866666666666667</v>
+        <v>0.44</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7676056338028169</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1338,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3392857142857143</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.723404255319149</v>
+        <v>0.75625</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1365,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1388,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1415,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1423,38 +1438,38 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2597402597402597</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>66</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L19">
         <v>20</v>
       </c>
-      <c r="D19">
+      <c r="M19">
         <v>20</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>57</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L19">
-        <v>45</v>
-      </c>
-      <c r="M19">
-        <v>45</v>
-      </c>
       <c r="N19">
         <v>1</v>
       </c>
@@ -1465,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1494,16 +1509,16 @@
         <v>187</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.6976744186046512</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1515,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1523,13 +1538,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1501340482573726</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C21">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1541,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>317</v>
+        <v>58</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1565,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1573,37 +1588,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.009342783505154639</v>
+        <v>0.128686327077748</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E22">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3075</v>
+        <v>325</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.6352941176470588</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L22">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1615,21 +1630,45 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>124</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.06333333333333334</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>281</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1645,17 +1684,41 @@
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.007416962270235408</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>0.21</v>
+      </c>
+      <c r="F24">
+        <v>0.79</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3078</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1667,47 +1730,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>0.5884353741496599</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L25">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="M25">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.5851063829787234</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L26">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1719,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.5846153846153846</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1745,21 +1808,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.5815899581589958</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L28">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M28">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1771,47 +1834,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.54</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L29">
+        <v>38</v>
+      </c>
+      <c r="M29">
+        <v>38</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>27</v>
-      </c>
-      <c r="M29">
-        <v>27</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.5285714285714286</v>
+        <v>0.58</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1823,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.4831460674157304</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L31">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M31">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1849,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.4222222222222222</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1875,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.3287671232876712</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1901,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.2564102564102564</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1927,7 +1990,85 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>58</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L35">
+        <v>28</v>
+      </c>
+      <c r="M35">
+        <v>28</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36">
+        <v>0.328125</v>
+      </c>
+      <c r="L36">
+        <v>21</v>
+      </c>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="L37">
+        <v>21</v>
+      </c>
+      <c r="M37">
+        <v>21</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
